--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Ptprc-Cd22.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Ptprc-Cd22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
   </si>
   <si>
     <t>M1</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.26410876202681</v>
+        <v>0.7744373333333333</v>
       </c>
       <c r="H2">
-        <v>0.26410876202681</v>
+        <v>2.323312</v>
       </c>
       <c r="I2">
-        <v>0.0007084664793791137</v>
+        <v>0.001996953570362765</v>
       </c>
       <c r="J2">
-        <v>0.0007084664793791137</v>
+        <v>0.001996953570362765</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.34219701339287</v>
+        <v>5.348457333333333</v>
       </c>
       <c r="N2">
-        <v>5.34219701339287</v>
+        <v>16.045372</v>
       </c>
       <c r="O2">
-        <v>0.6104165821201774</v>
+        <v>0.4996811083875221</v>
       </c>
       <c r="P2">
-        <v>0.6104165821201774</v>
+        <v>0.499681108387522</v>
       </c>
       <c r="Q2">
-        <v>1.410921039710513</v>
+        <v>4.142045034673777</v>
       </c>
       <c r="R2">
-        <v>1.410921039710513</v>
+        <v>37.278405312064</v>
       </c>
       <c r="S2">
-        <v>0.0004324596868893137</v>
+        <v>0.0009978399734372858</v>
       </c>
       <c r="T2">
-        <v>0.0004324596868893137</v>
+        <v>0.000997839973437286</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.26410876202681</v>
+        <v>0.7744373333333333</v>
       </c>
       <c r="H3">
-        <v>0.26410876202681</v>
+        <v>2.323312</v>
       </c>
       <c r="I3">
-        <v>0.0007084664793791137</v>
+        <v>0.001996953570362765</v>
       </c>
       <c r="J3">
-        <v>0.0007084664793791137</v>
+        <v>0.001996953570362765</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.40952626849712</v>
+        <v>5.355284000000001</v>
       </c>
       <c r="N3">
-        <v>3.40952626849712</v>
+        <v>16.065852</v>
       </c>
       <c r="O3">
-        <v>0.3895834178798225</v>
+        <v>0.500318891612478</v>
       </c>
       <c r="P3">
-        <v>0.3895834178798225</v>
+        <v>0.5003188916124779</v>
       </c>
       <c r="Q3">
-        <v>0.9004857618706634</v>
+        <v>4.147331860202668</v>
       </c>
       <c r="R3">
-        <v>0.9004857618706634</v>
+        <v>37.32598674182401</v>
       </c>
       <c r="S3">
-        <v>0.0002760067924897999</v>
+        <v>0.0009991135969254791</v>
       </c>
       <c r="T3">
-        <v>0.0002760067924897999</v>
+        <v>0.0009991135969254791</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>126.773838160473</v>
+        <v>0.2864023333333334</v>
       </c>
       <c r="H4">
-        <v>126.773838160473</v>
+        <v>0.8592070000000001</v>
       </c>
       <c r="I4">
-        <v>0.3400682889491209</v>
+        <v>0.0007385131598040558</v>
       </c>
       <c r="J4">
-        <v>0.3400682889491209</v>
+        <v>0.0007385131598040558</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.34219701339287</v>
+        <v>5.348457333333333</v>
       </c>
       <c r="N4">
-        <v>5.34219701339287</v>
+        <v>16.045372</v>
       </c>
       <c r="O4">
-        <v>0.6104165821201774</v>
+        <v>0.4996811083875221</v>
       </c>
       <c r="P4">
-        <v>0.6104165821201774</v>
+        <v>0.499681108387522</v>
       </c>
       <c r="Q4">
-        <v>677.2508195972299</v>
+        <v>1.531810660000445</v>
       </c>
       <c r="R4">
-        <v>677.2508195972299</v>
+        <v>13.786295940004</v>
       </c>
       <c r="S4">
-        <v>0.2075833226277793</v>
+        <v>0.0003690210742496618</v>
       </c>
       <c r="T4">
-        <v>0.2075833226277793</v>
+        <v>0.0003690210742496618</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +711,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>126.773838160473</v>
+        <v>0.2864023333333334</v>
       </c>
       <c r="H5">
-        <v>126.773838160473</v>
+        <v>0.8592070000000001</v>
       </c>
       <c r="I5">
-        <v>0.3400682889491209</v>
+        <v>0.0007385131598040558</v>
       </c>
       <c r="J5">
-        <v>0.3400682889491209</v>
+        <v>0.0007385131598040558</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.40952626849712</v>
+        <v>5.355284000000001</v>
       </c>
       <c r="N5">
-        <v>3.40952626849712</v>
+        <v>16.065852</v>
       </c>
       <c r="O5">
-        <v>0.3895834178798225</v>
+        <v>0.500318891612478</v>
       </c>
       <c r="P5">
-        <v>0.3895834178798225</v>
+        <v>0.5003188916124779</v>
       </c>
       <c r="Q5">
-        <v>432.2387313663353</v>
+        <v>1.533765833262667</v>
       </c>
       <c r="R5">
-        <v>432.2387313663353</v>
+        <v>13.803892499364</v>
       </c>
       <c r="S5">
-        <v>0.1324849663213416</v>
+        <v>0.000369492085554394</v>
       </c>
       <c r="T5">
-        <v>0.1324849663213416</v>
+        <v>0.000369492085554394</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +773,61 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>245.628914213803</v>
+        <v>127.3845316666667</v>
       </c>
       <c r="H6">
-        <v>245.628914213803</v>
+        <v>382.153595</v>
       </c>
       <c r="I6">
-        <v>0.6588946566986762</v>
+        <v>0.3284720200998472</v>
       </c>
       <c r="J6">
-        <v>0.6588946566986762</v>
+        <v>0.3284720200998472</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.34219701339287</v>
+        <v>5.348457333333333</v>
       </c>
       <c r="N6">
-        <v>5.34219701339287</v>
+        <v>16.045372</v>
       </c>
       <c r="O6">
-        <v>0.6104165821201774</v>
+        <v>0.4996811083875221</v>
       </c>
       <c r="P6">
-        <v>0.6104165821201774</v>
+        <v>0.499681108387522</v>
       </c>
       <c r="Q6">
-        <v>1312.198051915912</v>
+        <v>681.3107325458155</v>
       </c>
       <c r="R6">
-        <v>1312.198051915912</v>
+        <v>6131.79659291234</v>
       </c>
       <c r="S6">
-        <v>0.4022002243192536</v>
+        <v>0.1641312630777801</v>
       </c>
       <c r="T6">
-        <v>0.4022002243192536</v>
+        <v>0.16413126307778</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +835,61 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>245.628914213803</v>
+        <v>127.3845316666667</v>
       </c>
       <c r="H7">
-        <v>245.628914213803</v>
+        <v>382.153595</v>
       </c>
       <c r="I7">
-        <v>0.6588946566986762</v>
+        <v>0.3284720200998472</v>
       </c>
       <c r="J7">
-        <v>0.6588946566986762</v>
+        <v>0.3284720200998472</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.40952626849712</v>
+        <v>5.355284000000001</v>
       </c>
       <c r="N7">
-        <v>3.40952626849712</v>
+        <v>16.065852</v>
       </c>
       <c r="O7">
-        <v>0.3895834178798225</v>
+        <v>0.500318891612478</v>
       </c>
       <c r="P7">
-        <v>0.3895834178798225</v>
+        <v>0.5003188916124779</v>
       </c>
       <c r="Q7">
-        <v>837.478235314387</v>
+        <v>682.1803442819935</v>
       </c>
       <c r="R7">
-        <v>837.478235314387</v>
+        <v>6139.623098537941</v>
       </c>
       <c r="S7">
-        <v>0.2566944323794226</v>
+        <v>0.1643407570220671</v>
       </c>
       <c r="T7">
-        <v>0.2566944323794226</v>
+        <v>0.1643407570220671</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +897,61 @@
         <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.122494061235655</v>
+        <v>259.1857756666666</v>
       </c>
       <c r="H8">
-        <v>0.122494061235655</v>
+        <v>777.557327</v>
       </c>
       <c r="I8">
-        <v>0.0003285878728236385</v>
+        <v>0.668332914526494</v>
       </c>
       <c r="J8">
-        <v>0.0003285878728236385</v>
+        <v>0.6683329145264941</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.34219701339287</v>
+        <v>5.348457333333333</v>
       </c>
       <c r="N8">
-        <v>5.34219701339287</v>
+        <v>16.045372</v>
       </c>
       <c r="O8">
-        <v>0.6104165821201774</v>
+        <v>0.4996811083875221</v>
       </c>
       <c r="P8">
-        <v>0.6104165821201774</v>
+        <v>0.499681108387522</v>
       </c>
       <c r="Q8">
-        <v>0.6543874080914794</v>
+        <v>1386.244062560071</v>
       </c>
       <c r="R8">
-        <v>0.6543874080914794</v>
+        <v>12476.19656304064</v>
       </c>
       <c r="S8">
-        <v>0.0002005754862551449</v>
+        <v>0.3339533315024616</v>
       </c>
       <c r="T8">
-        <v>0.0002005754862551449</v>
+        <v>0.3339533315024616</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +959,185 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>259.1857756666666</v>
+      </c>
+      <c r="H9">
+        <v>777.557327</v>
+      </c>
+      <c r="I9">
+        <v>0.668332914526494</v>
+      </c>
+      <c r="J9">
+        <v>0.6683329145264941</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>5.355284000000001</v>
+      </c>
+      <c r="N9">
+        <v>16.065852</v>
+      </c>
+      <c r="O9">
+        <v>0.500318891612478</v>
+      </c>
+      <c r="P9">
+        <v>0.5003188916124779</v>
+      </c>
+      <c r="Q9">
+        <v>1388.013437455289</v>
+      </c>
+      <c r="R9">
+        <v>12492.12093709761</v>
+      </c>
+      <c r="S9">
+        <v>0.3343795830240325</v>
+      </c>
+      <c r="T9">
+        <v>0.3343795830240325</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
         <v>25</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.122494061235655</v>
-      </c>
-      <c r="H9">
-        <v>0.122494061235655</v>
-      </c>
-      <c r="I9">
-        <v>0.0003285878728236385</v>
-      </c>
-      <c r="J9">
-        <v>0.0003285878728236385</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>3.40952626849712</v>
-      </c>
-      <c r="N9">
-        <v>3.40952626849712</v>
-      </c>
-      <c r="O9">
-        <v>0.3895834178798225</v>
-      </c>
-      <c r="P9">
-        <v>0.3895834178798225</v>
-      </c>
-      <c r="Q9">
-        <v>0.4176467195178605</v>
-      </c>
-      <c r="R9">
-        <v>0.4176467195178605</v>
-      </c>
-      <c r="S9">
-        <v>0.0001280123865684935</v>
-      </c>
-      <c r="T9">
-        <v>0.0001280123865684935</v>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.1782366666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.53471</v>
+      </c>
+      <c r="I10">
+        <v>0.0004595986434919951</v>
+      </c>
+      <c r="J10">
+        <v>0.0004595986434919951</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>5.348457333333333</v>
+      </c>
+      <c r="N10">
+        <v>16.045372</v>
+      </c>
+      <c r="O10">
+        <v>0.4996811083875221</v>
+      </c>
+      <c r="P10">
+        <v>0.499681108387522</v>
+      </c>
+      <c r="Q10">
+        <v>0.9532912069022222</v>
+      </c>
+      <c r="R10">
+        <v>8.579620862120001</v>
+      </c>
+      <c r="S10">
+        <v>0.0002296527595934817</v>
+      </c>
+      <c r="T10">
+        <v>0.0002296527595934817</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.1782366666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.53471</v>
+      </c>
+      <c r="I11">
+        <v>0.0004595986434919951</v>
+      </c>
+      <c r="J11">
+        <v>0.0004595986434919951</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>5.355284000000001</v>
+      </c>
+      <c r="N11">
+        <v>16.065852</v>
+      </c>
+      <c r="O11">
+        <v>0.500318891612478</v>
+      </c>
+      <c r="P11">
+        <v>0.5003188916124779</v>
+      </c>
+      <c r="Q11">
+        <v>0.9545079692133336</v>
+      </c>
+      <c r="R11">
+        <v>8.590571722920002</v>
+      </c>
+      <c r="S11">
+        <v>0.0002299458838985134</v>
+      </c>
+      <c r="T11">
+        <v>0.0002299458838985134</v>
       </c>
     </row>
   </sheetData>
